--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/word_level_predictions_67.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G39" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_I-NonEvent</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3726,156 +3726,156 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>6</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Satellite</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" t="n">
         <v>6</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C65" s="2" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>positioning</t>
         </is>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K65" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L65" s="2" t="inlineStr">
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" t="n">
         <v>6</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" t="n">
         <v>2</v>
       </c>
-      <c r="E66" s="2" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G66" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K66" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L66" s="2" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K66" t="b">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3917,11 +3917,11 @@
         </is>
       </c>
       <c r="I67" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K67" s="2" t="b">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G68" s="2" t="b">
@@ -3969,11 +3969,11 @@
         </is>
       </c>
       <c r="I68" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K68" s="2" t="b">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G69" s="2" t="b">
@@ -4021,11 +4021,11 @@
         </is>
       </c>
       <c r="I69" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K69" s="2" t="b">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8458,156 +8458,156 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
+      <c r="A155" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="B155" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="C155" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="inlineStr">
+      <c r="D155" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="F155" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G155" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" t="b">
-        <v>1</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K155" t="b">
-        <v>1</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="G155" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K155" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
+      <c r="A156" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="B156" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="C156" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="D156" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G160" s="2" t="b">
@@ -8753,11 +8753,11 @@
         </is>
       </c>
       <c r="I160" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K160" s="2" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G161" s="2" t="b">
@@ -8805,11 +8805,11 @@
         </is>
       </c>
       <c r="I161" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J161" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K161" s="2" t="b">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G162" s="2" t="b">
@@ -8857,11 +8857,11 @@
         </is>
       </c>
       <c r="I162" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K162" s="2" t="b">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="F163" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G163" s="2" t="b">
@@ -8909,11 +8909,11 @@
         </is>
       </c>
       <c r="I163" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K163" s="2" t="b">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9966,156 +9966,156 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>17</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>6</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>17</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>7</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>17</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>8</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F186" s="2" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,156 +10642,156 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="inlineStr">
+      <c r="D197" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -10833,11 +10833,11 @@
         </is>
       </c>
       <c r="I200" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K200" s="2" t="b">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="F201" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G201" s="2" t="b">
@@ -10885,11 +10885,11 @@
         </is>
       </c>
       <c r="I201" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K201" s="2" t="b">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G202" s="2" t="b">
@@ -10937,11 +10937,11 @@
         </is>
       </c>
       <c r="I202" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K202" s="2" t="b">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10989,11 +10989,11 @@
         </is>
       </c>
       <c r="I203" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K203" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11110,158 +11110,158 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" t="n">
         <v>20</v>
       </c>
-      <c r="B206" s="2" t="inlineStr">
+      <c r="B206" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C206" s="2" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D206" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" s="2" t="inlineStr">
+      <c r="D206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F206" s="2" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G206" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L206" s="2" t="inlineStr">
+      <c r="G206" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K206" t="b">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>20</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F207" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>20</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
+      <c r="D208" t="n">
         <v>2</v>
       </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13450,208 +13450,208 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
+      <c r="A251" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="B251" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C251" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" t="inlineStr">
+      <c r="D251" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="F251" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G251" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I251" t="b">
-        <v>1</v>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K251" t="b">
-        <v>1</v>
-      </c>
-      <c r="L251" t="inlineStr">
+      <c r="G251" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K251" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L251" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
+      <c r="A252" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="B252" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C252" s="2" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D252" t="n">
-        <v>1</v>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I252" t="b">
-        <v>1</v>
-      </c>
-      <c r="J252" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K252" t="b">
-        <v>1</v>
-      </c>
-      <c r="L252" t="inlineStr">
+      <c r="D252" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F252" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K252" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L252" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
+      <c r="A253" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="B253" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C253" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D253" t="n">
+      <c r="D253" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E253" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I253" t="b">
-        <v>1</v>
-      </c>
-      <c r="J253" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K253" t="b">
-        <v>1</v>
-      </c>
-      <c r="L253" t="inlineStr">
+      <c r="E253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F253" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K253" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L253" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
+      <c r="A254" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="B254" s="2" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+      <c r="C254" s="2" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="D254" t="n">
+      <c r="D254" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="E254" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" t="b">
-        <v>1</v>
-      </c>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K254" t="b">
-        <v>1</v>
-      </c>
-      <c r="L254" t="inlineStr">
+      <c r="F254" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="F258" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G258" s="2" t="b">
@@ -13849,11 +13849,11 @@
         </is>
       </c>
       <c r="I258" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K258" s="2" t="b">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="L258" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14698,572 +14698,572 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
+      <c r="A277" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" t="n">
+      <c r="D277" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
+      <c r="A278" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" t="n">
+      <c r="D278" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
+      <c r="A279" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" t="n">
+      <c r="D279" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
+      <c r="E279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
+      <c r="A285" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="B285" s="2" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+      <c r="C285" s="2" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" t="n">
+      <c r="D285" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="E285" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="F285" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" t="b">
-        <v>1</v>
-      </c>
-      <c r="J285" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K285" t="b">
-        <v>1</v>
-      </c>
-      <c r="L285" t="inlineStr">
+      <c r="G285" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J285" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K285" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L285" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15322,156 +15322,156 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
+      <c r="A287" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="B287" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+      <c r="C287" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D287" t="n">
-        <v>0</v>
-      </c>
-      <c r="E287" t="inlineStr">
+      <c r="D287" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
+      <c r="F287" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" t="b">
-        <v>1</v>
-      </c>
-      <c r="J287" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K287" t="b">
-        <v>1</v>
-      </c>
-      <c r="L287" t="inlineStr">
+      <c r="G287" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J287" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K287" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L287" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
+      <c r="A288" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B288" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+      <c r="C288" s="2" t="inlineStr">
         <is>
           <t>attitude</t>
         </is>
       </c>
-      <c r="D288" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" t="b">
-        <v>1</v>
-      </c>
-      <c r="J288" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K288" t="b">
-        <v>1</v>
-      </c>
-      <c r="L288" t="inlineStr">
+      <c r="D288" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F288" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J288" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K288" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L288" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
+      <c r="A289" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="B289" s="2" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+      <c r="C289" s="2" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D289" t="n">
+      <c r="D289" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E289" t="inlineStr">
+      <c r="E289" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I289" t="b">
-        <v>1</v>
-      </c>
-      <c r="J289" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K289" t="b">
-        <v>1</v>
-      </c>
-      <c r="L289" t="inlineStr">
+      <c r="F289" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J289" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K289" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15513,11 +15513,11 @@
         </is>
       </c>
       <c r="I290" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K290" s="2" t="b">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15738,208 +15738,208 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="n">
+      <c r="A295" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B295" t="inlineStr">
+      <c r="B295" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr">
+      <c r="C295" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D295" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" t="inlineStr">
+      <c r="D295" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
+      <c r="F295" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I295" t="b">
-        <v>1</v>
-      </c>
-      <c r="J295" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K295" t="b">
-        <v>1</v>
-      </c>
-      <c r="L295" t="inlineStr">
+      <c r="G295" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J295" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K295" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L295" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="n">
+      <c r="A296" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B296" t="inlineStr">
+      <c r="B296" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr">
+      <c r="C296" s="2" t="inlineStr">
         <is>
           <t>processor</t>
         </is>
       </c>
-      <c r="D296" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G296" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I296" t="b">
-        <v>1</v>
-      </c>
-      <c r="J296" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K296" t="b">
-        <v>1</v>
-      </c>
-      <c r="L296" t="inlineStr">
+      <c r="D296" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J296" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K296" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L296" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="n">
+      <c r="A297" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B297" t="inlineStr">
+      <c r="B297" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr">
+      <c r="C297" s="2" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="D297" t="n">
+      <c r="D297" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F297" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G297" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I297" t="b">
-        <v>1</v>
-      </c>
-      <c r="J297" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K297" t="b">
-        <v>1</v>
-      </c>
-      <c r="L297" t="inlineStr">
+      <c r="E297" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F297" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G297" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J297" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K297" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L297" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="n">
+      <c r="A298" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B298" t="inlineStr">
+      <c r="B298" s="2" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr">
+      <c r="C298" s="2" t="inlineStr">
         <is>
           <t>overheated</t>
         </is>
       </c>
-      <c r="D298" t="n">
+      <c r="D298" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="E298" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" t="b">
-        <v>1</v>
-      </c>
-      <c r="J298" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K298" t="b">
-        <v>1</v>
-      </c>
-      <c r="L298" t="inlineStr">
+      <c r="F298" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G298" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J298" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K298" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L298" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15981,11 +15981,11 @@
         </is>
       </c>
       <c r="I299" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K299" s="2" t="b">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F300" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G300" s="2" t="b">
@@ -16033,11 +16033,11 @@
         </is>
       </c>
       <c r="I300" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K300" s="2" t="b">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="L300" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16085,11 +16085,11 @@
         </is>
       </c>
       <c r="I301" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="F302" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G302" s="2" t="b">
@@ -16137,11 +16137,11 @@
         </is>
       </c>
       <c r="I302" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K302" s="2" t="b">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="L302" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16189,11 +16189,11 @@
         </is>
       </c>
       <c r="I303" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16241,11 +16241,11 @@
         </is>
       </c>
       <c r="I304" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16293,11 +16293,11 @@
         </is>
       </c>
       <c r="I305" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16345,11 +16345,11 @@
         </is>
       </c>
       <c r="I306" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16397,11 +16397,11 @@
         </is>
       </c>
       <c r="I307" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16449,11 +16449,11 @@
         </is>
       </c>
       <c r="I308" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16501,11 +16501,11 @@
         </is>
       </c>
       <c r="I309" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="2" t="n">
+      <c r="A311" t="n">
         <v>28</v>
       </c>
-      <c r="B311" s="2" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" s="2" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" s="2" t="inlineStr">
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" s="2" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K311" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2" t="inlineStr">
+      <c r="G311" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" t="b">
+        <v>1</v>
+      </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K311" t="b">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="2" t="n">
+      <c r="A312" t="n">
         <v>28</v>
       </c>
-      <c r="B312" s="2" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" s="2" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F312" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G312" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K312" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L312" s="2" t="inlineStr">
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G312" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" t="b">
+        <v>1</v>
+      </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K312" t="b">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="2" t="n">
+      <c r="A313" t="n">
         <v>28</v>
       </c>
-      <c r="B313" s="2" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" s="2" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" s="2" t="n">
+      <c r="D313" t="n">
         <v>2</v>
       </c>
-      <c r="E313" s="2" t="inlineStr">
+      <c r="E313" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K313" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L313" s="2" t="inlineStr">
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K313" t="b">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -16761,11 +16761,11 @@
         </is>
       </c>
       <c r="I314" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K314" s="2" t="b">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F315" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G315" s="2" t="b">
@@ -16813,11 +16813,11 @@
         </is>
       </c>
       <c r="I315" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K315" s="2" t="b">
@@ -16825,7 +16825,7 @@
       </c>
       <c r="L315" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16865,11 +16865,11 @@
         </is>
       </c>
       <c r="I316" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K316" s="2" t="b">
@@ -16917,11 +16917,11 @@
         </is>
       </c>
       <c r="I317" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K317" s="2" t="b">
@@ -16969,11 +16969,11 @@
         </is>
       </c>
       <c r="I318" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K318" s="2" t="b">
@@ -17021,11 +17021,11 @@
         </is>
       </c>
       <c r="I319" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K319" s="2" t="b">
@@ -17073,11 +17073,11 @@
         </is>
       </c>
       <c r="I320" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K320" s="2" t="b">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="F321" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G321" s="2" t="b">
@@ -17125,11 +17125,11 @@
         </is>
       </c>
       <c r="I321" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K321" s="2" t="b">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="L321" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17177,11 +17177,11 @@
         </is>
       </c>
       <c r="I322" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F357" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G357" s="2" t="b">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="L357" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="F360" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G360" s="2" t="b">
@@ -19153,11 +19153,11 @@
         </is>
       </c>
       <c r="I360" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K360" s="2" t="b">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="L360" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="F361" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G361" s="2" t="b">
@@ -19205,11 +19205,11 @@
         </is>
       </c>
       <c r="I361" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K361" s="2" t="b">
@@ -19217,681 +19217,681 @@
       </c>
       <c r="L361" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="2" t="n">
+      <c r="A362" t="n">
         <v>33</v>
       </c>
-      <c r="B362" s="2" t="inlineStr">
+      <c r="B362" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C362" s="2" t="inlineStr">
+      <c r="C362" t="inlineStr">
         <is>
           <t>Make</t>
         </is>
       </c>
-      <c r="D362" s="2" t="n">
+      <c r="D362" t="n">
         <v>2</v>
       </c>
-      <c r="E362" s="2" t="inlineStr">
+      <c r="E362" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F362" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G362" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H362" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I362" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K362" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L362" s="2" t="inlineStr">
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G362" t="b">
+        <v>1</v>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I362" t="b">
+        <v>1</v>
+      </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K362" t="b">
+        <v>1</v>
+      </c>
+      <c r="L362" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="2" t="n">
+      <c r="A363" t="n">
         <v>33</v>
       </c>
-      <c r="B363" s="2" t="inlineStr">
+      <c r="B363" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C363" s="2" t="inlineStr">
+      <c r="C363" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D363" s="2" t="n">
+      <c r="D363" t="n">
         <v>3</v>
       </c>
-      <c r="E363" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F363" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G363" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H363" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I363" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K363" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L363" s="2" t="inlineStr">
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I363" t="b">
+        <v>1</v>
+      </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K363" t="b">
+        <v>1</v>
+      </c>
+      <c r="L363" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="2" t="n">
+      <c r="A364" t="n">
         <v>33</v>
       </c>
-      <c r="B364" s="2" t="inlineStr">
+      <c r="B364" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C364" s="2" t="inlineStr">
+      <c r="C364" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D364" s="2" t="n">
+      <c r="D364" t="n">
         <v>4</v>
       </c>
-      <c r="E364" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F364" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G364" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H364" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I364" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K364" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L364" s="2" t="inlineStr">
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G364" t="b">
+        <v>1</v>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I364" t="b">
+        <v>1</v>
+      </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K364" t="b">
+        <v>1</v>
+      </c>
+      <c r="L364" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="2" t="n">
+      <c r="A365" t="n">
         <v>33</v>
       </c>
-      <c r="B365" s="2" t="inlineStr">
+      <c r="B365" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C365" s="2" t="inlineStr">
+      <c r="C365" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="D365" s="2" t="n">
+      <c r="D365" t="n">
         <v>5</v>
       </c>
-      <c r="E365" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F365" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G365" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H365" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I365" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K365" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L365" s="2" t="inlineStr">
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G365" t="b">
+        <v>1</v>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I365" t="b">
+        <v>1</v>
+      </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K365" t="b">
+        <v>1</v>
+      </c>
+      <c r="L365" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="2" t="n">
+      <c r="A366" t="n">
         <v>33</v>
       </c>
-      <c r="B366" s="2" t="inlineStr">
+      <c r="B366" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C366" s="2" t="inlineStr">
+      <c r="C366" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D366" s="2" t="n">
+      <c r="D366" t="n">
         <v>6</v>
       </c>
-      <c r="E366" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F366" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G366" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H366" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I366" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K366" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L366" s="2" t="inlineStr">
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G366" t="b">
+        <v>1</v>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I366" t="b">
+        <v>1</v>
+      </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K366" t="b">
+        <v>1</v>
+      </c>
+      <c r="L366" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="2" t="n">
+      <c r="A367" t="n">
         <v>33</v>
       </c>
-      <c r="B367" s="2" t="inlineStr">
+      <c r="B367" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C367" s="2" t="inlineStr">
+      <c r="C367" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D367" s="2" t="n">
+      <c r="D367" t="n">
         <v>7</v>
       </c>
-      <c r="E367" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F367" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G367" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H367" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I367" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K367" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L367" s="2" t="inlineStr">
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G367" t="b">
+        <v>1</v>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I367" t="b">
+        <v>1</v>
+      </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K367" t="b">
+        <v>1</v>
+      </c>
+      <c r="L367" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="2" t="n">
+      <c r="A368" t="n">
         <v>33</v>
       </c>
-      <c r="B368" s="2" t="inlineStr">
+      <c r="B368" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C368" s="2" t="inlineStr">
+      <c r="C368" t="inlineStr">
         <is>
           <t>facing</t>
         </is>
       </c>
-      <c r="D368" s="2" t="n">
+      <c r="D368" t="n">
         <v>8</v>
       </c>
-      <c r="E368" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F368" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G368" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H368" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I368" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K368" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L368" s="2" t="inlineStr">
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G368" t="b">
+        <v>1</v>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I368" t="b">
+        <v>1</v>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K368" t="b">
+        <v>1</v>
+      </c>
+      <c r="L368" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="2" t="n">
+      <c r="A369" t="n">
         <v>33</v>
       </c>
-      <c r="B369" s="2" t="inlineStr">
+      <c r="B369" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C369" s="2" t="inlineStr">
+      <c r="C369" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D369" s="2" t="n">
+      <c r="D369" t="n">
         <v>9</v>
       </c>
-      <c r="E369" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F369" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G369" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H369" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I369" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K369" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L369" s="2" t="inlineStr">
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G369" t="b">
+        <v>1</v>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I369" t="b">
+        <v>1</v>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K369" t="b">
+        <v>1</v>
+      </c>
+      <c r="L369" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="2" t="n">
+      <c r="A370" t="n">
         <v>33</v>
       </c>
-      <c r="B370" s="2" t="inlineStr">
+      <c r="B370" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C370" s="2" t="inlineStr">
+      <c r="C370" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D370" s="2" t="n">
+      <c r="D370" t="n">
         <v>10</v>
       </c>
-      <c r="E370" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F370" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G370" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H370" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I370" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K370" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L370" s="2" t="inlineStr">
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G370" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I370" t="b">
+        <v>1</v>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K370" t="b">
+        <v>1</v>
+      </c>
+      <c r="L370" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="2" t="n">
+      <c r="A371" t="n">
         <v>33</v>
       </c>
-      <c r="B371" s="2" t="inlineStr">
+      <c r="B371" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C371" s="2" t="inlineStr">
+      <c r="C371" t="inlineStr">
         <is>
           <t>avoid</t>
         </is>
       </c>
-      <c r="D371" s="2" t="n">
+      <c r="D371" t="n">
         <v>11</v>
       </c>
-      <c r="E371" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F371" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G371" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H371" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I371" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K371" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L371" s="2" t="inlineStr">
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G371" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I371" t="b">
+        <v>1</v>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K371" t="b">
+        <v>1</v>
+      </c>
+      <c r="L371" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="2" t="n">
+      <c r="A372" t="n">
         <v>33</v>
       </c>
-      <c r="B372" s="2" t="inlineStr">
+      <c r="B372" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C372" s="2" t="inlineStr">
+      <c r="C372" t="inlineStr">
         <is>
           <t>blocking</t>
         </is>
       </c>
-      <c r="D372" s="2" t="n">
+      <c r="D372" t="n">
         <v>12</v>
       </c>
-      <c r="E372" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F372" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G372" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H372" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I372" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K372" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L372" s="2" t="inlineStr">
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G372" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I372" t="b">
+        <v>1</v>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K372" t="b">
+        <v>1</v>
+      </c>
+      <c r="L372" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="2" t="n">
+      <c r="A373" t="n">
         <v>33</v>
       </c>
-      <c r="B373" s="2" t="inlineStr">
+      <c r="B373" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C373" s="2" t="inlineStr">
+      <c r="C373" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D373" s="2" t="n">
+      <c r="D373" t="n">
         <v>13</v>
       </c>
-      <c r="E373" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F373" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G373" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H373" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I373" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K373" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L373" s="2" t="inlineStr">
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G373" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I373" t="b">
+        <v>1</v>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K373" t="b">
+        <v>1</v>
+      </c>
+      <c r="L373" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="2" t="n">
+      <c r="A374" t="n">
         <v>33</v>
       </c>
-      <c r="B374" s="2" t="inlineStr">
+      <c r="B374" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C374" s="2" t="inlineStr">
+      <c r="C374" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D374" s="2" t="n">
+      <c r="D374" t="n">
         <v>14</v>
       </c>
-      <c r="E374" s="2" t="inlineStr">
+      <c r="E374" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F374" s="2" t="inlineStr">
+      <c r="F374" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G374" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H374" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I374" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K374" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L374" s="2" t="inlineStr">
+      <c r="G374" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I374" t="b">
+        <v>1</v>
+      </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K374" t="b">
+        <v>1</v>
+      </c>
+      <c r="L374" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19950,260 +19950,260 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="2" t="n">
+      <c r="A376" t="n">
         <v>34</v>
       </c>
-      <c r="B376" s="2" t="inlineStr">
+      <c r="B376" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" s="2" t="inlineStr">
+      <c r="C376" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E376" s="2" t="inlineStr">
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" s="2" t="inlineStr">
+      <c r="F376" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K376" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L376" s="2" t="inlineStr">
+      <c r="G376" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" t="b">
+        <v>1</v>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K376" t="b">
+        <v>1</v>
+      </c>
+      <c r="L376" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="2" t="n">
+      <c r="A377" t="n">
         <v>34</v>
       </c>
-      <c r="B377" s="2" t="inlineStr">
+      <c r="B377" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" s="2" t="inlineStr">
+      <c r="C377" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F377" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G377" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K377" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L377" s="2" t="inlineStr">
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G377" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" t="b">
+        <v>1</v>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K377" t="b">
+        <v>1</v>
+      </c>
+      <c r="L377" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="2" t="n">
+      <c r="A378" t="n">
         <v>34</v>
       </c>
-      <c r="B378" s="2" t="inlineStr">
+      <c r="B378" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C378" s="2" t="inlineStr">
+      <c r="C378" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="D378" s="2" t="n">
+      <c r="D378" t="n">
         <v>2</v>
       </c>
-      <c r="E378" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F378" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G378" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H378" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I378" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K378" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L378" s="2" t="inlineStr">
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G378" t="b">
+        <v>1</v>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I378" t="b">
+        <v>1</v>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K378" t="b">
+        <v>1</v>
+      </c>
+      <c r="L378" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="2" t="n">
+      <c r="A379" t="n">
         <v>34</v>
       </c>
-      <c r="B379" s="2" t="inlineStr">
+      <c r="B379" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C379" s="2" t="inlineStr">
+      <c r="C379" t="inlineStr">
         <is>
           <t>Dial</t>
         </is>
       </c>
-      <c r="D379" s="2" t="n">
+      <c r="D379" t="n">
         <v>3</v>
       </c>
-      <c r="E379" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F379" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G379" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H379" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I379" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K379" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L379" s="2" t="inlineStr">
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G379" t="b">
+        <v>1</v>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I379" t="b">
+        <v>1</v>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K379" t="b">
+        <v>1</v>
+      </c>
+      <c r="L379" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="2" t="n">
+      <c r="A380" t="n">
         <v>34</v>
       </c>
-      <c r="B380" s="2" t="inlineStr">
+      <c r="B380" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C380" s="2" t="inlineStr">
+      <c r="C380" t="inlineStr">
         <is>
           <t>Locked</t>
         </is>
       </c>
-      <c r="D380" s="2" t="n">
+      <c r="D380" t="n">
         <v>4</v>
       </c>
-      <c r="E380" s="2" t="inlineStr">
+      <c r="E380" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F380" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G380" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H380" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I380" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K380" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L380" s="2" t="inlineStr">
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G380" t="b">
+        <v>1</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I380" t="b">
+        <v>1</v>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K380" t="b">
+        <v>1</v>
+      </c>
+      <c r="L380" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="F381" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G381" s="2" t="b">
@@ -20245,11 +20245,11 @@
         </is>
       </c>
       <c r="I381" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J381" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K381" s="2" t="b">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="L381" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="F382" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G382" s="2" t="b">
@@ -20297,11 +20297,11 @@
         </is>
       </c>
       <c r="I382" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K382" s="2" t="b">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="L382" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="F383" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G383" s="2" t="b">
@@ -20349,11 +20349,11 @@
         </is>
       </c>
       <c r="I383" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J383" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K383" s="2" t="b">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="L383" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="F384" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G384" s="2" t="b">
@@ -20401,11 +20401,11 @@
         </is>
       </c>
       <c r="I384" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J384" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K384" s="2" t="b">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="L384" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="F385" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G385" s="2" t="b">
@@ -20453,11 +20453,11 @@
         </is>
       </c>
       <c r="I385" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K385" s="2" t="b">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="L385" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -21614,312 +21614,312 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="2" t="n">
+      <c r="A408" t="n">
         <v>37</v>
       </c>
-      <c r="B408" s="2" t="inlineStr">
+      <c r="B408" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" s="2" t="inlineStr">
+      <c r="C408" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" s="2" t="n">
+      <c r="D408" t="n">
         <v>4</v>
       </c>
-      <c r="E408" s="2" t="inlineStr">
+      <c r="E408" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G408" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J408" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K408" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L408" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G408" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K408" t="b">
+        <v>1</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="2" t="n">
+      <c r="A409" t="n">
         <v>37</v>
       </c>
-      <c r="B409" s="2" t="inlineStr">
+      <c r="B409" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" s="2" t="inlineStr">
+      <c r="C409" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" s="2" t="n">
+      <c r="D409" t="n">
         <v>5</v>
       </c>
-      <c r="E409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J409" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K409" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L409" s="2" t="inlineStr">
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" t="b">
+        <v>1</v>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K409" t="b">
+        <v>1</v>
+      </c>
+      <c r="L409" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="2" t="n">
+      <c r="A410" t="n">
         <v>37</v>
       </c>
-      <c r="B410" s="2" t="inlineStr">
+      <c r="B410" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" s="2" t="inlineStr">
+      <c r="C410" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" s="2" t="n">
+      <c r="D410" t="n">
         <v>6</v>
       </c>
-      <c r="E410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J410" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K410" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L410" s="2" t="inlineStr">
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" t="b">
+        <v>1</v>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K410" t="b">
+        <v>1</v>
+      </c>
+      <c r="L410" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="2" t="n">
+      <c r="A411" t="n">
         <v>37</v>
       </c>
-      <c r="B411" s="2" t="inlineStr">
+      <c r="B411" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" s="2" t="inlineStr">
+      <c r="C411" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" s="2" t="n">
+      <c r="D411" t="n">
         <v>7</v>
       </c>
-      <c r="E411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J411" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K411" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L411" s="2" t="inlineStr">
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" t="b">
+        <v>1</v>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K411" t="b">
+        <v>1</v>
+      </c>
+      <c r="L411" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="2" t="n">
+      <c r="A412" t="n">
         <v>37</v>
       </c>
-      <c r="B412" s="2" t="inlineStr">
+      <c r="B412" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" s="2" t="inlineStr">
+      <c r="C412" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" s="2" t="n">
+      <c r="D412" t="n">
         <v>8</v>
       </c>
-      <c r="E412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J412" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K412" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L412" s="2" t="inlineStr">
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" t="b">
+        <v>1</v>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K412" t="b">
+        <v>1</v>
+      </c>
+      <c r="L412" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="2" t="n">
+      <c r="A413" t="n">
         <v>37</v>
       </c>
-      <c r="B413" s="2" t="inlineStr">
+      <c r="B413" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" s="2" t="inlineStr">
+      <c r="C413" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" s="2" t="n">
+      <c r="D413" t="n">
         <v>9</v>
       </c>
-      <c r="E413" s="2" t="inlineStr">
+      <c r="E413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" s="2" t="inlineStr">
+      <c r="F413" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J413" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K413" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L413" s="2" t="inlineStr">
+      <c r="G413" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" t="b">
+        <v>1</v>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K413" t="b">
+        <v>1</v>
+      </c>
+      <c r="L413" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" t="inlineStr">
+      <c r="D457" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem2/67/word_level_predictions_67.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G15" s="2" t="b">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G21" s="2" t="b">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="inlineStr">
+      <c r="D36" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G39" s="2" t="b">
@@ -2461,11 +2461,11 @@
         </is>
       </c>
       <c r="I39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K39" s="2" t="b">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G40" s="2" t="b">
@@ -2513,11 +2513,11 @@
         </is>
       </c>
       <c r="I40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K40" s="2" t="b">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G41" s="2" t="b">
@@ -2565,11 +2565,11 @@
         </is>
       </c>
       <c r="I41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K41" s="2" t="b">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" s="2" t="b">
@@ -2629,213 +2629,213 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>Missed_I-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3726,156 +3726,156 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Satellite</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="inlineStr">
+      <c r="D64" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K64" t="b">
-        <v>1</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="G64" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>positioning</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K65" t="b">
-        <v>1</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="D65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
+      <c r="A66" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>Satellite positioning off Fly with Caution .</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>off</t>
         </is>
       </c>
-      <c r="D66" t="n">
+      <c r="D66" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>1</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K66" t="b">
-        <v>1</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -3917,11 +3917,11 @@
         </is>
       </c>
       <c r="I67" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K67" s="2" t="b">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G68" s="2" t="b">
@@ -3969,11 +3969,11 @@
         </is>
       </c>
       <c r="I68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K68" s="2" t="b">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G69" s="2" t="b">
@@ -4021,11 +4021,11 @@
         </is>
       </c>
       <c r="I69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K69" s="2" t="b">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8065,7 +8065,7 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G147" s="2" t="b">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8458,156 +8458,156 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" t="n">
         <v>15</v>
       </c>
-      <c r="B155" s="2" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C155" s="2" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D155" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F155" s="2" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G155" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H155" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K155" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L155" s="2" t="inlineStr">
+      <c r="G155" t="b">
+        <v>1</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" t="n">
         <v>15</v>
       </c>
-      <c r="B156" s="2" t="inlineStr">
+      <c r="B156" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C156" s="2" t="inlineStr">
+      <c r="C156" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D156" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L156" s="2" t="inlineStr">
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" t="n">
         <v>15</v>
       </c>
-      <c r="B157" s="2" t="inlineStr">
+      <c r="B157" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" s="2" t="inlineStr">
+      <c r="C157" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" s="2" t="n">
+      <c r="D157" t="n">
         <v>2</v>
       </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G158" s="2" t="b">
@@ -8649,11 +8649,11 @@
         </is>
       </c>
       <c r="I158" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K158" s="2" t="b">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="L158" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8701,11 +8701,11 @@
         </is>
       </c>
       <c r="I159" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J159" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G160" s="2" t="b">
@@ -8753,11 +8753,11 @@
         </is>
       </c>
       <c r="I160" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J160" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K160" s="2" t="b">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L160" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G161" s="2" t="b">
@@ -8805,11 +8805,11 @@
         </is>
       </c>
       <c r="I161" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K161" s="2" t="b">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="L161" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       </c>
       <c r="F162" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G162" s="2" t="b">
@@ -8857,11 +8857,11 @@
         </is>
       </c>
       <c r="I162" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K162" s="2" t="b">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="L162" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
       </c>
       <c r="F163" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G163" s="2" t="b">
@@ -8909,11 +8909,11 @@
         </is>
       </c>
       <c r="I163" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K163" s="2" t="b">
@@ -8921,7 +8921,7 @@
       </c>
       <c r="L163" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -9966,156 +9966,156 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Aircraft antenna satellite signal searching error Fly with caution .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="E186" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="F186" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,156 +10642,156 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F198" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -10833,11 +10833,11 @@
         </is>
       </c>
       <c r="I200" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K200" s="2" t="b">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="F201" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G201" s="2" t="b">
@@ -10885,11 +10885,11 @@
         </is>
       </c>
       <c r="I201" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K201" s="2" t="b">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="L201" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="F202" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G202" s="2" t="b">
@@ -10937,11 +10937,11 @@
         </is>
       </c>
       <c r="I202" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K202" s="2" t="b">
@@ -10949,7 +10949,7 @@
       </c>
       <c r="L202" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10989,11 +10989,11 @@
         </is>
       </c>
       <c r="I203" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K203" s="2" t="b">
@@ -11041,11 +11041,11 @@
         </is>
       </c>
       <c r="I204" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K204" s="2" t="b">
@@ -11110,158 +11110,158 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
+      <c r="A206" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B206" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C206" s="2" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="inlineStr">
+      <c r="D206" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E206" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="F206" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G206" t="b">
-        <v>1</v>
-      </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I206" t="b">
-        <v>1</v>
-      </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K206" t="b">
-        <v>1</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="G206" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H206" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J206" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K206" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L206" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="D207" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F207" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
+      <c r="A208" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B208" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C208" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D208" t="n">
+      <c r="D208" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E208" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13450,208 +13450,208 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="n">
+      <c r="A251" t="n">
         <v>23</v>
       </c>
-      <c r="B251" s="2" t="inlineStr">
+      <c r="B251" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C251" s="2" t="inlineStr">
+      <c r="C251" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" s="2" t="inlineStr">
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F251" s="2" t="inlineStr">
+      <c r="F251" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G251" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H251" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K251" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L251" s="2" t="inlineStr">
+      <c r="G251" t="b">
+        <v>1</v>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K251" t="b">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="n">
+      <c r="A252" t="n">
         <v>23</v>
       </c>
-      <c r="B252" s="2" t="inlineStr">
+      <c r="B252" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C252" s="2" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D252" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F252" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G252" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H252" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L252" s="2" t="inlineStr">
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G252" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="n">
+      <c r="A253" t="n">
         <v>23</v>
       </c>
-      <c r="B253" s="2" t="inlineStr">
+      <c r="B253" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C253" s="2" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D253" s="2" t="n">
+      <c r="D253" t="n">
         <v>2</v>
       </c>
-      <c r="E253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F253" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G253" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H253" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L253" s="2" t="inlineStr">
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G253" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="2" t="n">
+      <c r="A254" t="n">
         <v>23</v>
       </c>
-      <c r="B254" s="2" t="inlineStr">
+      <c r="B254" t="inlineStr">
         <is>
           <t>Remote controller signal weak Adjust remote controller antennas .</t>
         </is>
       </c>
-      <c r="C254" s="2" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="D254" s="2" t="n">
+      <c r="D254" t="n">
         <v>3</v>
       </c>
-      <c r="E254" s="2" t="inlineStr">
+      <c r="E254" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F254" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G254" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K254" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="2" t="inlineStr">
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G254" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -13693,11 +13693,11 @@
         </is>
       </c>
       <c r="I255" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K255" s="2" t="b">
@@ -13745,11 +13745,11 @@
         </is>
       </c>
       <c r="I256" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K256" s="2" t="b">
@@ -13797,11 +13797,11 @@
         </is>
       </c>
       <c r="I257" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K257" s="2" t="b">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="F258" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G258" s="2" t="b">
@@ -13849,11 +13849,11 @@
         </is>
       </c>
       <c r="I258" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K258" s="2" t="b">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="L258" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14698,572 +14698,572 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>25</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>Stop</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>2</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>25</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>3</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F276" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" t="n">
         <v>25</v>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F277" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G277" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" t="n">
         <v>25</v>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F278" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" t="n">
         <v>25</v>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F279" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G279" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>25</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>25</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>temperature</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>25</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>25</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>25</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F284" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="2" t="n">
+      <c r="A285" t="n">
         <v>25</v>
       </c>
-      <c r="B285" s="2" t="inlineStr">
+      <c r="B285" t="inlineStr">
         <is>
           <t>Battery overheating Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C285" s="2" t="inlineStr">
+      <c r="C285" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D285" s="2" t="n">
+      <c r="D285" t="n">
         <v>12</v>
       </c>
-      <c r="E285" s="2" t="inlineStr">
+      <c r="E285" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F285" s="2" t="inlineStr">
+      <c r="F285" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G285" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K285" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L285" s="2" t="inlineStr">
+      <c r="G285" t="b">
+        <v>1</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I285" t="b">
+        <v>1</v>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K285" t="b">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15322,156 +15322,156 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="2" t="n">
+      <c r="A287" t="n">
         <v>26</v>
       </c>
-      <c r="B287" s="2" t="inlineStr">
+      <c r="B287" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C287" s="2" t="inlineStr">
+      <c r="C287" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D287" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E287" s="2" t="inlineStr">
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F287" s="2" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G287" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K287" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L287" s="2" t="inlineStr">
+      <c r="G287" t="b">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I287" t="b">
+        <v>1</v>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K287" t="b">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="2" t="n">
+      <c r="A288" t="n">
         <v>26</v>
       </c>
-      <c r="B288" s="2" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C288" s="2" t="inlineStr">
+      <c r="C288" t="inlineStr">
         <is>
           <t>attitude</t>
         </is>
       </c>
-      <c r="D288" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F288" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G288" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K288" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L288" s="2" t="inlineStr">
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G288" t="b">
+        <v>1</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I288" t="b">
+        <v>1</v>
+      </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K288" t="b">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" t="n">
         <v>26</v>
       </c>
-      <c r="B289" s="2" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>IMU attitude restricted Ensure aircraft is level .</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>restricted</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
+      <c r="D289" t="n">
         <v>2</v>
       </c>
-      <c r="E289" s="2" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F289" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G289" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2" t="inlineStr">
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I289" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15513,11 +15513,11 @@
         </is>
       </c>
       <c r="I290" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K290" s="2" t="b">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15565,11 +15565,11 @@
         </is>
       </c>
       <c r="I291" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J291" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="F292" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G292" s="2" t="b">
@@ -15617,11 +15617,11 @@
         </is>
       </c>
       <c r="I292" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K292" s="2" t="b">
@@ -15629,7 +15629,7 @@
       </c>
       <c r="L292" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15669,11 +15669,11 @@
         </is>
       </c>
       <c r="I293" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15738,208 +15738,208 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="2" t="n">
+      <c r="A295" t="n">
         <v>27</v>
       </c>
-      <c r="B295" s="2" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C295" s="2" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D295" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E295" s="2" t="inlineStr">
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F295" s="2" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G295" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H295" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K295" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L295" s="2" t="inlineStr">
+      <c r="G295" t="b">
+        <v>1</v>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I295" t="b">
+        <v>1</v>
+      </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K295" t="b">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="2" t="n">
+      <c r="A296" t="n">
         <v>27</v>
       </c>
-      <c r="B296" s="2" t="inlineStr">
+      <c r="B296" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C296" s="2" t="inlineStr">
+      <c r="C296" t="inlineStr">
         <is>
           <t>processor</t>
         </is>
       </c>
-      <c r="D296" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F296" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G296" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H296" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K296" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L296" s="2" t="inlineStr">
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G296" t="b">
+        <v>1</v>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I296" t="b">
+        <v>1</v>
+      </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K296" t="b">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="2" t="n">
+      <c r="A297" t="n">
         <v>27</v>
       </c>
-      <c r="B297" s="2" t="inlineStr">
+      <c r="B297" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C297" s="2" t="inlineStr">
+      <c r="C297" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="D297" s="2" t="n">
+      <c r="D297" t="n">
         <v>2</v>
       </c>
-      <c r="E297" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F297" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G297" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H297" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K297" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L297" s="2" t="inlineStr">
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G297" t="b">
+        <v>1</v>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I297" t="b">
+        <v>1</v>
+      </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K297" t="b">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="2" t="n">
+      <c r="A298" t="n">
         <v>27</v>
       </c>
-      <c r="B298" s="2" t="inlineStr">
+      <c r="B298" t="inlineStr">
         <is>
           <t>Aircraft processor chip overheated Power off aircraft and wait for temperature to return to normal .</t>
         </is>
       </c>
-      <c r="C298" s="2" t="inlineStr">
+      <c r="C298" t="inlineStr">
         <is>
           <t>overheated</t>
         </is>
       </c>
-      <c r="D298" s="2" t="n">
+      <c r="D298" t="n">
         <v>3</v>
       </c>
-      <c r="E298" s="2" t="inlineStr">
+      <c r="E298" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F298" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G298" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H298" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K298" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L298" s="2" t="inlineStr">
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I298" t="b">
+        <v>1</v>
+      </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K298" t="b">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -15981,11 +15981,11 @@
         </is>
       </c>
       <c r="I299" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K299" s="2" t="b">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="F300" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G300" s="2" t="b">
@@ -16033,11 +16033,11 @@
         </is>
       </c>
       <c r="I300" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K300" s="2" t="b">
@@ -16045,7 +16045,7 @@
       </c>
       <c r="L300" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16085,11 +16085,11 @@
         </is>
       </c>
       <c r="I301" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16125,7 +16125,7 @@
       </c>
       <c r="F302" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G302" s="2" t="b">
@@ -16137,11 +16137,11 @@
         </is>
       </c>
       <c r="I302" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K302" s="2" t="b">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="L302" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16189,11 +16189,11 @@
         </is>
       </c>
       <c r="I303" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="F304" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G304" s="2" t="b">
@@ -16241,11 +16241,11 @@
         </is>
       </c>
       <c r="I304" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K304" s="2" t="b">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="L304" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="F305" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G305" s="2" t="b">
@@ -16293,11 +16293,11 @@
         </is>
       </c>
       <c r="I305" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K305" s="2" t="b">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="L305" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16345,11 +16345,11 @@
         </is>
       </c>
       <c r="I306" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16397,11 +16397,11 @@
         </is>
       </c>
       <c r="I307" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16449,11 +16449,11 @@
         </is>
       </c>
       <c r="I308" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16501,11 +16501,11 @@
         </is>
       </c>
       <c r="I309" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16570,156 +16570,156 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="n">
+      <c r="A311" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B311" t="inlineStr">
+      <c r="B311" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr">
+      <c r="C311" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D311" t="n">
-        <v>0</v>
-      </c>
-      <c r="E311" t="inlineStr">
+      <c r="D311" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
+      <c r="F311" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G311" t="b">
-        <v>1</v>
-      </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I311" t="b">
-        <v>1</v>
-      </c>
-      <c r="J311" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K311" t="b">
-        <v>1</v>
-      </c>
-      <c r="L311" t="inlineStr">
+      <c r="G311" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J311" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K311" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L311" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="n">
+      <c r="A312" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B312" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C312" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D312" t="n">
-        <v>1</v>
-      </c>
-      <c r="E312" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G312" t="b">
-        <v>1</v>
-      </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I312" t="b">
-        <v>1</v>
-      </c>
-      <c r="J312" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K312" t="b">
-        <v>1</v>
-      </c>
-      <c r="L312" t="inlineStr">
+      <c r="D312" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E312" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F312" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G312" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K312" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="n">
+      <c r="A313" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B313" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C313" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D313" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E313" t="inlineStr">
+      <c r="E313" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G313" t="b">
-        <v>1</v>
-      </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I313" t="b">
-        <v>1</v>
-      </c>
-      <c r="J313" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K313" t="b">
-        <v>1</v>
-      </c>
-      <c r="L313" t="inlineStr">
+      <c r="F313" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G313" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J313" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K313" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L313" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -16761,11 +16761,11 @@
         </is>
       </c>
       <c r="I314" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K314" s="2" t="b">
@@ -16801,7 +16801,7 @@
       </c>
       <c r="F315" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G315" s="2" t="b">
@@ -16813,11 +16813,11 @@
         </is>
       </c>
       <c r="I315" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K315" s="2" t="b">
@@ -16825,7 +16825,7 @@
       </c>
       <c r="L315" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16865,11 +16865,11 @@
         </is>
       </c>
       <c r="I316" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K316" s="2" t="b">
@@ -16917,11 +16917,11 @@
         </is>
       </c>
       <c r="I317" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K317" s="2" t="b">
@@ -16969,11 +16969,11 @@
         </is>
       </c>
       <c r="I318" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J318" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K318" s="2" t="b">
@@ -17021,11 +17021,11 @@
         </is>
       </c>
       <c r="I319" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K319" s="2" t="b">
@@ -17073,11 +17073,11 @@
         </is>
       </c>
       <c r="I320" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K320" s="2" t="b">
@@ -17113,7 +17113,7 @@
       </c>
       <c r="F321" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G321" s="2" t="b">
@@ -17125,11 +17125,11 @@
         </is>
       </c>
       <c r="I321" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J321" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K321" s="2" t="b">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="L321" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="F322" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G322" s="2" t="b">
@@ -17177,11 +17177,11 @@
         </is>
       </c>
       <c r="I322" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J322" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K322" s="2" t="b">
@@ -17189,7 +17189,7 @@
       </c>
       <c r="L322" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="F357" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G357" s="2" t="b">
@@ -19009,7 +19009,7 @@
       </c>
       <c r="L357" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="F360" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G360" s="2" t="b">
@@ -19153,11 +19153,11 @@
         </is>
       </c>
       <c r="I360" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J360" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K360" s="2" t="b">
@@ -19165,7 +19165,7 @@
       </c>
       <c r="L360" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="F361" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G361" s="2" t="b">
@@ -19205,11 +19205,11 @@
         </is>
       </c>
       <c r="I361" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J361" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K361" s="2" t="b">
@@ -19217,681 +19217,681 @@
       </c>
       <c r="L361" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="n">
+      <c r="A362" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B362" t="inlineStr">
+      <c r="B362" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr">
+      <c r="C362" s="2" t="inlineStr">
         <is>
           <t>Make</t>
         </is>
       </c>
-      <c r="D362" t="n">
+      <c r="D362" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E362" t="inlineStr">
+      <c r="E362" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F362" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G362" t="b">
-        <v>1</v>
-      </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I362" t="b">
-        <v>1</v>
-      </c>
-      <c r="J362" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K362" t="b">
-        <v>1</v>
-      </c>
-      <c r="L362" t="inlineStr">
+      <c r="F362" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G362" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H362" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I362" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J362" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K362" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L362" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="n">
+      <c r="A363" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B363" t="inlineStr">
+      <c r="B363" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr">
+      <c r="C363" s="2" t="inlineStr">
         <is>
           <t>sure</t>
         </is>
       </c>
-      <c r="D363" t="n">
+      <c r="D363" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E363" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F363" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G363" t="b">
-        <v>1</v>
-      </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I363" t="b">
-        <v>1</v>
-      </c>
-      <c r="J363" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K363" t="b">
-        <v>1</v>
-      </c>
-      <c r="L363" t="inlineStr">
+      <c r="E363" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F363" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G363" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I363" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J363" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K363" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L363" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="n">
+      <c r="A364" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B364" t="inlineStr">
+      <c r="B364" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr">
+      <c r="C364" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D364" t="n">
+      <c r="D364" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E364" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F364" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G364" t="b">
-        <v>1</v>
-      </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I364" t="b">
-        <v>1</v>
-      </c>
-      <c r="J364" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K364" t="b">
-        <v>1</v>
-      </c>
-      <c r="L364" t="inlineStr">
+      <c r="E364" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F364" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G364" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H364" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I364" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J364" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K364" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L364" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="n">
+      <c r="A365" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B365" t="inlineStr">
+      <c r="B365" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr">
+      <c r="C365" s="2" t="inlineStr">
         <is>
           <t>remote</t>
         </is>
       </c>
-      <c r="D365" t="n">
+      <c r="D365" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G365" t="b">
-        <v>1</v>
-      </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I365" t="b">
-        <v>1</v>
-      </c>
-      <c r="J365" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K365" t="b">
-        <v>1</v>
-      </c>
-      <c r="L365" t="inlineStr">
+      <c r="E365" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F365" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G365" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H365" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I365" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J365" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K365" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L365" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="n">
+      <c r="A366" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B366" t="inlineStr">
+      <c r="B366" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr">
+      <c r="C366" s="2" t="inlineStr">
         <is>
           <t>controller</t>
         </is>
       </c>
-      <c r="D366" t="n">
+      <c r="D366" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G366" t="b">
-        <v>1</v>
-      </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I366" t="b">
-        <v>1</v>
-      </c>
-      <c r="J366" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K366" t="b">
-        <v>1</v>
-      </c>
-      <c r="L366" t="inlineStr">
+      <c r="E366" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F366" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G366" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H366" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I366" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J366" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K366" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L366" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="n">
+      <c r="A367" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B367" t="inlineStr">
+      <c r="B367" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr">
+      <c r="C367" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D367" t="n">
+      <c r="D367" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E367" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F367" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G367" t="b">
-        <v>1</v>
-      </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I367" t="b">
-        <v>1</v>
-      </c>
-      <c r="J367" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K367" t="b">
-        <v>1</v>
-      </c>
-      <c r="L367" t="inlineStr">
+      <c r="E367" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F367" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G367" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H367" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I367" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J367" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K367" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L367" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="n">
+      <c r="A368" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B368" t="inlineStr">
+      <c r="B368" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr">
+      <c r="C368" s="2" t="inlineStr">
         <is>
           <t>facing</t>
         </is>
       </c>
-      <c r="D368" t="n">
+      <c r="D368" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E368" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F368" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G368" t="b">
-        <v>1</v>
-      </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I368" t="b">
-        <v>1</v>
-      </c>
-      <c r="J368" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K368" t="b">
-        <v>1</v>
-      </c>
-      <c r="L368" t="inlineStr">
+      <c r="E368" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F368" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G368" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H368" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I368" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J368" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K368" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L368" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="n">
+      <c r="A369" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B369" t="inlineStr">
+      <c r="B369" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr">
+      <c r="C369" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D369" t="n">
+      <c r="D369" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E369" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F369" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G369" t="b">
-        <v>1</v>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I369" t="b">
-        <v>1</v>
-      </c>
-      <c r="J369" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K369" t="b">
-        <v>1</v>
-      </c>
-      <c r="L369" t="inlineStr">
+      <c r="E369" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F369" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G369" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H369" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I369" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J369" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K369" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L369" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="n">
+      <c r="A370" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B370" t="inlineStr">
+      <c r="B370" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr">
+      <c r="C370" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D370" t="n">
+      <c r="D370" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E370" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F370" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G370" t="b">
-        <v>1</v>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I370" t="b">
-        <v>1</v>
-      </c>
-      <c r="J370" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K370" t="b">
-        <v>1</v>
-      </c>
-      <c r="L370" t="inlineStr">
+      <c r="E370" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F370" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G370" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I370" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J370" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K370" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L370" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="n">
+      <c r="A371" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B371" t="inlineStr">
+      <c r="B371" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr">
+      <c r="C371" s="2" t="inlineStr">
         <is>
           <t>avoid</t>
         </is>
       </c>
-      <c r="D371" t="n">
+      <c r="D371" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E371" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G371" t="b">
-        <v>1</v>
-      </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I371" t="b">
-        <v>1</v>
-      </c>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K371" t="b">
-        <v>1</v>
-      </c>
-      <c r="L371" t="inlineStr">
+      <c r="E371" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F371" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G371" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I371" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J371" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K371" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L371" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="n">
+      <c r="A372" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B372" t="inlineStr">
+      <c r="B372" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C372" s="2" t="inlineStr">
         <is>
           <t>blocking</t>
         </is>
       </c>
-      <c r="D372" t="n">
+      <c r="D372" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F372" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G372" t="b">
-        <v>1</v>
-      </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I372" t="b">
-        <v>1</v>
-      </c>
-      <c r="J372" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K372" t="b">
-        <v>1</v>
-      </c>
-      <c r="L372" t="inlineStr">
+      <c r="E372" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F372" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G372" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I372" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J372" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K372" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L372" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="n">
+      <c r="A373" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B373" t="inlineStr">
+      <c r="B373" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr">
+      <c r="C373" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D373" t="n">
+      <c r="D373" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E373" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F373" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G373" t="b">
-        <v>1</v>
-      </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I373" t="b">
-        <v>1</v>
-      </c>
-      <c r="J373" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K373" t="b">
-        <v>1</v>
-      </c>
-      <c r="L373" t="inlineStr">
+      <c r="E373" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F373" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G373" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I373" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J373" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K373" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L373" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="n">
+      <c r="A374" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B374" t="inlineStr">
+      <c r="B374" s="2" t="inlineStr">
         <is>
           <t>Weak signal Make sure the remote controller is facing aircraft and avoid blocking the signal .</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr">
+      <c r="C374" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D374" t="n">
+      <c r="D374" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E374" t="inlineStr">
+      <c r="E374" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F374" t="inlineStr">
+      <c r="F374" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G374" t="b">
-        <v>1</v>
-      </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I374" t="b">
-        <v>1</v>
-      </c>
-      <c r="J374" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K374" t="b">
-        <v>1</v>
-      </c>
-      <c r="L374" t="inlineStr">
+      <c r="G374" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I374" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J374" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K374" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L374" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -19950,260 +19950,260 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="n">
+      <c r="A376" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B376" t="inlineStr">
+      <c r="B376" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr">
+      <c r="C376" s="2" t="inlineStr">
         <is>
           <t>Remote</t>
         </is>
       </c>
-      <c r="D376" t="n">
-        <v>0</v>
-      </c>
-      <c r="E376" t="inlineStr">
+      <c r="D376" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F376" t="inlineStr">
+      <c r="F376" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G376" t="b">
-        <v>1</v>
-      </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I376" t="b">
-        <v>1</v>
-      </c>
-      <c r="J376" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K376" t="b">
-        <v>1</v>
-      </c>
-      <c r="L376" t="inlineStr">
+      <c r="G376" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J376" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K376" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L376" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="n">
+      <c r="A377" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B377" t="inlineStr">
+      <c r="B377" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr">
+      <c r="C377" s="2" t="inlineStr">
         <is>
           <t>Controller</t>
         </is>
       </c>
-      <c r="D377" t="n">
-        <v>1</v>
-      </c>
-      <c r="E377" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F377" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G377" t="b">
-        <v>1</v>
-      </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I377" t="b">
-        <v>1</v>
-      </c>
-      <c r="J377" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K377" t="b">
-        <v>1</v>
-      </c>
-      <c r="L377" t="inlineStr">
+      <c r="D377" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E377" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F377" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G377" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J377" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K377" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L377" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="n">
+      <c r="A378" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B378" t="inlineStr">
+      <c r="B378" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr">
+      <c r="C378" s="2" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="D378" t="n">
+      <c r="D378" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E378" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F378" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G378" t="b">
-        <v>1</v>
-      </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I378" t="b">
-        <v>1</v>
-      </c>
-      <c r="J378" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K378" t="b">
-        <v>1</v>
-      </c>
-      <c r="L378" t="inlineStr">
+      <c r="E378" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F378" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G378" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H378" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I378" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J378" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K378" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L378" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="n">
+      <c r="A379" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B379" t="inlineStr">
+      <c r="B379" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr">
+      <c r="C379" s="2" t="inlineStr">
         <is>
           <t>Dial</t>
         </is>
       </c>
-      <c r="D379" t="n">
+      <c r="D379" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E379" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F379" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G379" t="b">
-        <v>1</v>
-      </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I379" t="b">
-        <v>1</v>
-      </c>
-      <c r="J379" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K379" t="b">
-        <v>1</v>
-      </c>
-      <c r="L379" t="inlineStr">
+      <c r="E379" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F379" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G379" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H379" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I379" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J379" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K379" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L379" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="n">
+      <c r="A380" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B380" t="inlineStr">
+      <c r="B380" s="2" t="inlineStr">
         <is>
           <t>Remote Controller Right Dial Locked Lightly press it to adjust .</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
+      <c r="C380" s="2" t="inlineStr">
         <is>
           <t>Locked</t>
         </is>
       </c>
-      <c r="D380" t="n">
+      <c r="D380" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E380" t="inlineStr">
+      <c r="E380" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F380" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G380" t="b">
-        <v>1</v>
-      </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I380" t="b">
-        <v>1</v>
-      </c>
-      <c r="J380" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K380" t="b">
-        <v>1</v>
-      </c>
-      <c r="L380" t="inlineStr">
+      <c r="F380" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G380" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H380" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I380" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J380" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K380" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L380" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="F381" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G381" s="2" t="b">
@@ -20245,11 +20245,11 @@
         </is>
       </c>
       <c r="I381" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J381" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K381" s="2" t="b">
@@ -20257,7 +20257,7 @@
       </c>
       <c r="L381" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -20285,7 +20285,7 @@
       </c>
       <c r="F382" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G382" s="2" t="b">
@@ -20297,11 +20297,11 @@
         </is>
       </c>
       <c r="I382" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J382" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K382" s="2" t="b">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="L382" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="F383" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G383" s="2" t="b">
@@ -20349,11 +20349,11 @@
         </is>
       </c>
       <c r="I383" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J383" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K383" s="2" t="b">
@@ -20361,7 +20361,7 @@
       </c>
       <c r="L383" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="F384" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G384" s="2" t="b">
@@ -20401,11 +20401,11 @@
         </is>
       </c>
       <c r="I384" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K384" s="2" t="b">
@@ -20413,7 +20413,7 @@
       </c>
       <c r="L384" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20441,7 +20441,7 @@
       </c>
       <c r="F385" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G385" s="2" t="b">
@@ -20453,11 +20453,11 @@
         </is>
       </c>
       <c r="I385" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J385" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K385" s="2" t="b">
@@ -20465,7 +20465,7 @@
       </c>
       <c r="L385" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21614,312 +21614,312 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="n">
+      <c r="A408" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B408" t="inlineStr">
+      <c r="B408" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr">
+      <c r="C408" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D408" t="n">
+      <c r="D408" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E408" t="inlineStr">
+      <c r="E408" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F408" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G408" t="b">
-        <v>1</v>
-      </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I408" t="b">
-        <v>1</v>
-      </c>
-      <c r="J408" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K408" t="b">
-        <v>1</v>
-      </c>
-      <c r="L408" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F408" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G408" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J408" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K408" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L408" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="n">
+      <c r="A409" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B409" t="inlineStr">
+      <c r="B409" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr">
+      <c r="C409" s="2" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D409" t="n">
+      <c r="D409" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G409" t="b">
-        <v>1</v>
-      </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I409" t="b">
-        <v>1</v>
-      </c>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K409" t="b">
-        <v>1</v>
-      </c>
-      <c r="L409" t="inlineStr">
+      <c r="E409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F409" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G409" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J409" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K409" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L409" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="n">
+      <c r="A410" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B410" t="inlineStr">
+      <c r="B410" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
+      <c r="C410" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D410" t="n">
+      <c r="D410" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F410" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G410" t="b">
-        <v>1</v>
-      </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I410" t="b">
-        <v>1</v>
-      </c>
-      <c r="J410" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K410" t="b">
-        <v>1</v>
-      </c>
-      <c r="L410" t="inlineStr">
+      <c r="E410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F410" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G410" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J410" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K410" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L410" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="n">
+      <c r="A411" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B411" t="inlineStr">
+      <c r="B411" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr">
+      <c r="C411" s="2" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D411" t="n">
+      <c r="D411" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G411" t="b">
-        <v>1</v>
-      </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I411" t="b">
-        <v>1</v>
-      </c>
-      <c r="J411" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K411" t="b">
-        <v>1</v>
-      </c>
-      <c r="L411" t="inlineStr">
+      <c r="E411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F411" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G411" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J411" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K411" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L411" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="n">
+      <c r="A412" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B412" t="inlineStr">
+      <c r="B412" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr">
+      <c r="C412" s="2" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D412" t="n">
+      <c r="D412" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G412" t="b">
-        <v>1</v>
-      </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I412" t="b">
-        <v>1</v>
-      </c>
-      <c r="J412" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K412" t="b">
-        <v>1</v>
-      </c>
-      <c r="L412" t="inlineStr">
+      <c r="E412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F412" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G412" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J412" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K412" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L412" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="n">
+      <c r="A413" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B413" t="inlineStr">
+      <c r="B413" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zones Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr">
+      <c r="C413" s="2" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D413" t="n">
+      <c r="D413" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E413" t="inlineStr">
+      <c r="E413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F413" t="inlineStr">
+      <c r="F413" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G413" t="b">
-        <v>1</v>
-      </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I413" t="b">
-        <v>1</v>
-      </c>
-      <c r="J413" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K413" t="b">
-        <v>1</v>
-      </c>
-      <c r="L413" t="inlineStr">
+      <c r="G413" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J413" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K413" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L413" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G460" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
